--- a/location_data.xlsx
+++ b/location_data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kerja\Unilever\Daily Scraping\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEB2752-5E73-41D4-83CD-A557C3BEE9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3780" yWindow="3480" windowWidth="17340" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -67,9 +73,6 @@
     <t>eyJzdG9yZV9jb2RlIjoiMU01TyIsImRlbGl2ZXJ5Ijp0cnVlLCJzYXBhIjp0cnVlLCJzdG9yZV9tZXRob2QiOjEsImZsYWdSb3V0ZSI6IjFNMkoifQ</t>
   </si>
   <si>
-    <t>eyJzdG9yZV9jb2RlIjoiQjQ1NCIsImRlbGl2ZXJ5Ijp0cnVlLCJzYXBhIjp0cnVlLCJzdG9yZV9tZXRob2QiOjEsImZsYWdSb3V0ZSI6IkIzNzMifQ</t>
-  </si>
-  <si>
     <t>eyJzdG9yZV9jb2RlIjoiSDExNSIsImRlbGl2ZXJ5Ijp0cnVlLCJzYXBhIjp0cnVlLCJzdG9yZV9tZXRob2QiOjEsImZsYWdSb3V0ZSI6IiJ9</t>
   </si>
   <si>
@@ -100,9 +103,6 @@
     <t>eyJzZWxsZXJfaWQiOiIxIiwiZmNfY29kZSI6IjFNWjEifQ</t>
   </si>
   <si>
-    <t>eyJzZWxsZXJfaWQiOiIxIiwiZmNfY29kZSI6IkJaMDEifQ</t>
-  </si>
-  <si>
     <t>eyJzZWxsZXJfaWQiOiIxIiwiZmNfY29kZSI6IkhaMDEifQ</t>
   </si>
   <si>
@@ -128,13 +128,19 @@
   </si>
   <si>
     <t>eyJzZWxsZXJfaWQiOiIxIiwiZmNfY29kZSI6IkdMMDYifQ</t>
+  </si>
+  <si>
+    <t>eyJzZWxsZXJfaWQiOiIxIiwiZmNfY29kZSI6IktaMDEifQ</t>
+  </si>
+  <si>
+    <t>eyJzdG9yZV9jb2RlIjoiWDc4MSIsImRlbGl2ZXJ5Ijp0cnVlLCJzYXBhIjp0cnVlLCJzdG9yZV9tZXRob2QiOjEsImRpc3RhbmNlIjoxLjE4NjM4ODA3OTA0MzY4NDJFNywibWF4RGlzdGFuY2UiOm51bGwsImZsYWdSb3V0ZSI6Ilg2NjUifQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,13 +203,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -241,7 +255,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -275,6 +289,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -309,9 +324,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -484,14 +500,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,58 +529,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>106.7966202</v>
+        <v>106.79662020000001</v>
       </c>
       <c r="C2">
-        <v>-6.2799916</v>
+        <v>-6.2799915999999998</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>107.6310104</v>
+        <v>107.63101039999999</v>
       </c>
       <c r="C3">
-        <v>-6.9149349</v>
+        <v>-6.9149349000000004</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>110.396104</v>
+        <v>110.39610399999999</v>
       </c>
       <c r="C4">
-        <v>-6.9679233</v>
+        <v>-6.9679232999999998</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -567,16 +588,16 @@
         <v>111.5958481</v>
       </c>
       <c r="C5">
-        <v>-7.148636</v>
+        <v>-7.1486359999999998</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -584,16 +605,16 @@
         <v>98.6560518</v>
       </c>
       <c r="C6">
-        <v>3.5675756</v>
+        <v>3.5675756000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -601,16 +622,16 @@
         <v>115.2086225</v>
       </c>
       <c r="C7">
-        <v>-8.676390399999999</v>
+        <v>-8.6763903999999989</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -618,16 +639,16 @@
         <v>114.5630104</v>
       </c>
       <c r="C8">
-        <v>-3.3267679</v>
+        <v>-3.3267679000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -635,33 +656,33 @@
         <v>104.7463401</v>
       </c>
       <c r="C9">
-        <v>-3.0102263</v>
+        <v>-3.0102262999999998</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>119.4125862</v>
+        <v>119.41258620000001</v>
       </c>
       <c r="C10">
-        <v>-5.146322</v>
+        <v>-5.1463219999999996</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -672,13 +693,13 @@
         <v>-1.2782529</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -686,13 +707,13 @@
         <v>131.3181065</v>
       </c>
       <c r="C12">
-        <v>-0.8943730999999999</v>
+        <v>-0.89437309999999992</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
